--- a/data/fluorimeter/AAN155_freevschelated_ABSORPTION_1E-5.xlsx
+++ b/data/fluorimeter/AAN155_freevschelated_ABSORPTION_1E-5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/JuliaProjects/LaserLab/data/fluorimeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4936DA7B-B4C7-D743-B512-AD5DD109E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C3B72-BE01-714E-AC39-EF4F768AC540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
